--- a/Formatos Finales/formato_ocular_2021.xlsx
+++ b/Formatos Finales/formato_ocular_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopor\OneDrive\Escritorio\Practicas\MyQt5 Final\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopor\OneDrive\Escritorio\Practicas\MyQt5 Final\Formatos Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22386,6 +22386,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
